--- a/Connexion.xlsx
+++ b/Connexion.xlsx
@@ -491,7 +491,7 @@
         <v>1234</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>3.0</v>
